--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC10488D311E513C5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BF9B0CB-2F27-48BA-A2D2-A9864FDF228E}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_F25DC773A252ABDACC10488D311E513C5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA5A3EC6-F487-4DC9-B408-93F78FDC9859}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Day</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>560_SubarraySumEqualsK</t>
+  </si>
+  <si>
+    <t>1249_MinRemoveToMakeValidParentheses</t>
   </si>
 </sst>
 </file>
@@ -69,9 +72,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,16 +356,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -380,6 +384,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44404</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_F25DC773A252ABDACC10488D311E513C5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA5A3EC6-F487-4DC9-B408-93F78FDC9859}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC10488D311E513C5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D80D5AA-65D8-49E2-83CC-B8E1ABEE5A8C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10455" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Day</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>1249_MinRemoveToMakeValidParentheses</t>
+  </si>
+  <si>
+    <t>953_VerifyingAnAlienDictionary</t>
+  </si>
+  <si>
+    <t>227_BasicCalculator2</t>
+  </si>
+  <si>
+    <t>212_WordSearch2</t>
+  </si>
+  <si>
+    <t>208_ImplementTrie</t>
   </si>
 </sst>
 </file>
@@ -356,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,6 +404,32 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44405</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44406</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC10488D311E513C5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D80D5AA-65D8-49E2-83CC-B8E1ABEE5A8C}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC10488D311E513C5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AEF6AB1-582B-4CA6-99D0-AC058922D768}"/>
   <bookViews>
-    <workbookView xWindow="-10455" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Day</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>208_ImplementTrie</t>
+  </si>
+  <si>
+    <t>415_AddStrings</t>
+  </si>
+  <si>
+    <t>67_AddBinary</t>
   </si>
 </sst>
 </file>
@@ -368,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,6 +436,19 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44410</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC10488D311E513C5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AEF6AB1-582B-4CA6-99D0-AC058922D768}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC10488D311E513C5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52AAFA06-4E00-4A5F-A489-961E6ACADCC0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Day</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>67_AddBinary</t>
+  </si>
+  <si>
+    <t>79_WordSearch</t>
   </si>
 </sst>
 </file>
@@ -374,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,6 +452,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44412</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackf\OneDrive - Northeastern University\Desktop\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC10488D311E513C5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52AAFA06-4E00-4A5F-A489-961E6ACADCC0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFE7AE1-89B5-4549-AE7E-B8BCF99F25E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Day</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>79_WordSearch</t>
+  </si>
+  <si>
+    <t>200_NumberOfIslands</t>
+  </si>
+  <si>
+    <t>286_WallsAndGates</t>
+  </si>
+  <si>
+    <t>queue BFS</t>
+  </si>
+  <si>
+    <t>Topic</t>
   </si>
 </sst>
 </file>
@@ -377,27 +389,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44402</v>
       </c>
@@ -405,7 +421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44404</v>
       </c>
@@ -413,7 +429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44405</v>
       </c>
@@ -421,12 +437,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44406</v>
       </c>
@@ -434,12 +450,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44410</v>
       </c>
@@ -447,17 +463,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44412</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>44413</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackf\OneDrive - Northeastern University\Desktop\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFE7AE1-89B5-4549-AE7E-B8BCF99F25E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{454B1684-4475-40C8-A3F1-2F1806B3F99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FFA5FB9-134F-43C6-B48A-68AED1F719D7}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="1830" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Day</t>
   </si>
@@ -70,6 +70,30 @@
   </si>
   <si>
     <t>Topic</t>
+  </si>
+  <si>
+    <t>58_LengthOfLastWord</t>
+  </si>
+  <si>
+    <t>69_Sqrt(x)</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>110_BalancedBinaryTree</t>
+  </si>
+  <si>
+    <t>bt</t>
+  </si>
+  <si>
+    <t>ll</t>
+  </si>
+  <si>
+    <t>83_RemoveDuplicatesFromSortedList</t>
   </si>
 </sst>
 </file>
@@ -389,20 +413,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44402</v>
       </c>
@@ -421,7 +445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44404</v>
       </c>
@@ -429,7 +453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44405</v>
       </c>
@@ -437,12 +461,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44406</v>
       </c>
@@ -450,12 +474,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44410</v>
       </c>
@@ -463,12 +487,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44412</v>
       </c>
@@ -476,7 +500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44413</v>
       </c>
@@ -487,12 +511,47 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44422</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{454B1684-4475-40C8-A3F1-2F1806B3F99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FFA5FB9-134F-43C6-B48A-68AED1F719D7}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{454B1684-4475-40C8-A3F1-2F1806B3F99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC5EF30D-0A8C-4166-BAAC-AA416194D3C8}"/>
   <bookViews>
     <workbookView xWindow="3885" yWindow="1830" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Day</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>83_RemoveDuplicatesFromSortedList</t>
+  </si>
+  <si>
+    <t>111_MinimumDepthOfBinaryTree</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,6 +557,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackf\OneDrive - Northeastern University\Desktop\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{454B1684-4475-40C8-A3F1-2F1806B3F99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC5EF30D-0A8C-4166-BAAC-AA416194D3C8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7389080B-C20C-4711-B001-A18FC16736FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="1830" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Day</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>111_MinimumDepthOfBinaryTree</t>
+  </si>
+  <si>
+    <t>160_IntersectionOfTwoLinkedList</t>
+  </si>
+  <si>
+    <t>157_ReadNCharactersGivenRead4</t>
+  </si>
+  <si>
+    <t>simulation</t>
+  </si>
+  <si>
+    <t>175_CombineTwoTables</t>
+  </si>
+  <si>
+    <t>db</t>
   </si>
 </sst>
 </file>
@@ -416,20 +431,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44402</v>
       </c>
@@ -448,7 +463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44404</v>
       </c>
@@ -456,7 +471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44405</v>
       </c>
@@ -464,12 +479,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44406</v>
       </c>
@@ -477,12 +492,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44410</v>
       </c>
@@ -490,12 +505,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44412</v>
       </c>
@@ -503,7 +518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44413</v>
       </c>
@@ -514,7 +529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -522,7 +537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44422</v>
       </c>
@@ -533,7 +548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -541,7 +556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -549,7 +564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -557,7 +572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44423</v>
       </c>
@@ -566,6 +581,33 @@
       </c>
       <c r="C17" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>44424</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackf\OneDrive - Northeastern University\Desktop\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7389080B-C20C-4711-B001-A18FC16736FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{7389080B-C20C-4711-B001-A18FC16736FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DDCAF9F-B7DF-4915-8B4A-DF1767FC5702}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="1830" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Day</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>db</t>
+  </si>
+  <si>
+    <t>163_MissingRanges</t>
+  </si>
+  <si>
+    <t>array</t>
   </si>
 </sst>
 </file>
@@ -431,20 +437,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44402</v>
       </c>
@@ -463,7 +469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44404</v>
       </c>
@@ -471,7 +477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44405</v>
       </c>
@@ -479,12 +485,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44406</v>
       </c>
@@ -492,12 +498,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44410</v>
       </c>
@@ -505,12 +511,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44412</v>
       </c>
@@ -518,7 +524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44413</v>
       </c>
@@ -529,7 +535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -537,7 +543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44422</v>
       </c>
@@ -548,7 +554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -556,7 +562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -564,7 +570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -572,7 +578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44423</v>
       </c>
@@ -583,7 +589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44424</v>
       </c>
@@ -594,7 +600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -602,12 +608,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44425</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{7389080B-C20C-4711-B001-A18FC16736FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DDCAF9F-B7DF-4915-8B4A-DF1767FC5702}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{7389080B-C20C-4711-B001-A18FC16736FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4E358CB-465E-4206-9098-FF4ED8A2EBF6}"/>
   <bookViews>
     <workbookView xWindow="3885" yWindow="1830" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Day</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>array</t>
+  </si>
+  <si>
+    <t>170_TwoSum3</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>171_ExcelSheetColumnNumber</t>
   </si>
 </sst>
 </file>
@@ -437,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,6 +636,25 @@
         <v>30</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{7389080B-C20C-4711-B001-A18FC16736FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4E358CB-465E-4206-9098-FF4ED8A2EBF6}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{7389080B-C20C-4711-B001-A18FC16736FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86C319F7-FCBB-406F-9FDF-B68E952447DD}"/>
   <bookViews>
     <workbookView xWindow="3885" yWindow="1830" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Day</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>171_ExcelSheetColumnNumber</t>
+  </si>
+  <si>
+    <t>172_FactorialTrailingZeros</t>
+  </si>
+  <si>
+    <t>181_EmployeesEarningMoreThanTheirManagers</t>
   </si>
 </sst>
 </file>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,6 +661,25 @@
         <v>18</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44427</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{7389080B-C20C-4711-B001-A18FC16736FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86C319F7-FCBB-406F-9FDF-B68E952447DD}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{7389080B-C20C-4711-B001-A18FC16736FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A36AC84-B32E-450A-BA53-AD62AD9C6732}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="1830" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="4125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Day</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>181_EmployeesEarningMoreThanTheirManagers</t>
+  </si>
+  <si>
+    <t>45_JumpGame2</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>61_RotateList</t>
+  </si>
+  <si>
+    <t>202_HappyNumber</t>
   </si>
 </sst>
 </file>
@@ -452,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,6 +692,33 @@
         <v>28</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44429</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{7389080B-C20C-4711-B001-A18FC16736FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A36AC84-B32E-450A-BA53-AD62AD9C6732}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{7389080B-C20C-4711-B001-A18FC16736FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B01A8ED-ADC0-432C-90D3-1473E0B02507}"/>
   <bookViews>
     <workbookView xWindow="4155" yWindow="4125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Day</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>202_HappyNumber</t>
+  </si>
+  <si>
+    <t>204_CountPrimes</t>
+  </si>
+  <si>
+    <t>326_PowerOfThree</t>
   </si>
 </sst>
 </file>
@@ -464,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +725,27 @@
         <v>18</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>44430</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{7389080B-C20C-4711-B001-A18FC16736FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B01A8ED-ADC0-432C-90D3-1473E0B02507}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{7389080B-C20C-4711-B001-A18FC16736FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5C3F568-17E1-46B6-A833-F93263E905EB}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Day</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>326_PowerOfThree</t>
+  </si>
+  <si>
+    <t>347_TopKFrequentElements</t>
+  </si>
+  <si>
+    <t>236_LowestCommonAncestorOfABinaryTree</t>
   </si>
 </sst>
 </file>
@@ -470,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,6 +750,25 @@
         <v>18</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>44431</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackf\OneDrive - Northeastern University\Desktop\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{7389080B-C20C-4711-B001-A18FC16736FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5C3F568-17E1-46B6-A833-F93263E905EB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BF46CD-028A-4FC7-818A-44FA705D316A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Day</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>236_LowestCommonAncestorOfABinaryTree</t>
+  </si>
+  <si>
+    <t>287_FindTheDuplicateNumber</t>
   </si>
 </sst>
 </file>
@@ -476,20 +479,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44402</v>
       </c>
@@ -508,7 +511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44404</v>
       </c>
@@ -516,7 +519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44405</v>
       </c>
@@ -524,12 +527,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44406</v>
       </c>
@@ -537,12 +540,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44410</v>
       </c>
@@ -550,12 +553,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44412</v>
       </c>
@@ -563,7 +566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44413</v>
       </c>
@@ -574,7 +577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -582,7 +585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44422</v>
       </c>
@@ -593,7 +596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -601,7 +604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -609,7 +612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -617,7 +620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44423</v>
       </c>
@@ -628,7 +631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44424</v>
       </c>
@@ -639,7 +642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -647,7 +650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -655,7 +658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44425</v>
       </c>
@@ -666,7 +669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44426</v>
       </c>
@@ -677,7 +680,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>33</v>
       </c>
@@ -685,7 +688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44427</v>
       </c>
@@ -696,7 +699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>35</v>
       </c>
@@ -704,7 +707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44429</v>
       </c>
@@ -715,7 +718,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>38</v>
       </c>
@@ -723,7 +726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -731,7 +734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44430</v>
       </c>
@@ -742,7 +745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>41</v>
       </c>
@@ -750,7 +753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44431</v>
       </c>
@@ -761,12 +764,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>43</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>44432</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackf\OneDrive - Northeastern University\Desktop\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BF46CD-028A-4FC7-818A-44FA705D316A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E2BF46CD-028A-4FC7-818A-44FA705D316A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70E98749-4620-407C-A682-E2AE9BB4A2C2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Day</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>287_FindTheDuplicateNumber</t>
+  </si>
+  <si>
+    <t>348_DesignTicTacToe</t>
   </si>
 </sst>
 </file>
@@ -479,20 +482,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44402</v>
       </c>
@@ -511,7 +514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44404</v>
       </c>
@@ -519,7 +522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44405</v>
       </c>
@@ -527,12 +530,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44406</v>
       </c>
@@ -540,12 +543,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44410</v>
       </c>
@@ -553,12 +556,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44412</v>
       </c>
@@ -566,7 +569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44413</v>
       </c>
@@ -577,7 +580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -585,7 +588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44422</v>
       </c>
@@ -596,7 +599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -604,7 +607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -612,7 +615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -620,7 +623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44423</v>
       </c>
@@ -631,7 +634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44424</v>
       </c>
@@ -642,7 +645,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -650,7 +653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -658,7 +661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44425</v>
       </c>
@@ -669,7 +672,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44426</v>
       </c>
@@ -680,7 +683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>33</v>
       </c>
@@ -688,7 +691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44427</v>
       </c>
@@ -699,7 +702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>35</v>
       </c>
@@ -707,7 +710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44429</v>
       </c>
@@ -718,7 +721,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>38</v>
       </c>
@@ -726,7 +729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -734,7 +737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44430</v>
       </c>
@@ -745,7 +748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>41</v>
       </c>
@@ -753,7 +756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44431</v>
       </c>
@@ -764,7 +767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>43</v>
       </c>
@@ -772,7 +775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44432</v>
       </c>
@@ -781,6 +784,17 @@
       </c>
       <c r="C33" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E2BF46CD-028A-4FC7-818A-44FA705D316A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70E98749-4620-407C-A682-E2AE9BB4A2C2}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{E2BF46CD-028A-4FC7-818A-44FA705D316A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFA44030-BDEC-4C87-9AAC-047D5A70D529}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="二刷" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -484,7 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -801,4 +802,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5B335A-F893-4E97-B268-193044B23A23}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{E2BF46CD-028A-4FC7-818A-44FA705D316A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFA44030-BDEC-4C87-9AAC-047D5A70D529}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{E2BF46CD-028A-4FC7-818A-44FA705D316A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E8E1A85-281D-4772-A4B6-E5E5FF72A2A5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17775" yWindow="3690" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="124">
   <si>
     <t>Day</t>
   </si>
@@ -164,16 +164,258 @@
   </si>
   <si>
     <t>348_DesignTicTacToe</t>
+  </si>
+  <si>
+    <t>Two Pointer</t>
+  </si>
+  <si>
+    <t>1. Two Sum</t>
+  </si>
+  <si>
+    <t>15. 3sum</t>
+  </si>
+  <si>
+    <t>16. 3Sum Closest</t>
+  </si>
+  <si>
+    <t>11. Container with Most Water</t>
+  </si>
+  <si>
+    <t>3. Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>76. Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>42. Trapping Raing Water</t>
+  </si>
+  <si>
+    <t>88. Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>1052. Grumpy Bookstore Owner</t>
+  </si>
+  <si>
+    <t>340. Longest Substring with At Most K Distinct Characters</t>
+  </si>
+  <si>
+    <t>475. Heaters</t>
+  </si>
+  <si>
+    <t>209. Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>6 hrs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum-closest</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/container-with-most-water</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-window-substring</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/trapping-rain-water</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-sorted-array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/grumpy-bookstore-owner</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/heaters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-size-subarray-sum</t>
+  </si>
+  <si>
+    <t>Arrays &amp; Strings</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
+  </si>
+  <si>
+    <t>283. Move Zeros</t>
+  </si>
+  <si>
+    <t>56. Merge Intervals</t>
+  </si>
+  <si>
+    <t>57. Insert Intervals</t>
+  </si>
+  <si>
+    <t>621. Task Scheduler</t>
+  </si>
+  <si>
+    <t>54. Spiral Matrix</t>
+  </si>
+  <si>
+    <t>31. Next Permutation</t>
+  </si>
+  <si>
+    <t>41. First Missing Positive</t>
+  </si>
+  <si>
+    <t>49. Group Anagrams</t>
+  </si>
+  <si>
+    <t>48. Rotate Image</t>
+  </si>
+  <si>
+    <t>289. Game of Life</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/move-zeroes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-intervals</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insert-interval</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/task-scheduler</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/spiral-matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-permutation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/first-missing-positive</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/group-anagrams</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-image</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/game-of-life</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>33. Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>153. Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>34. Find First and Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>981. Tme Based Key-Value Store</t>
+  </si>
+  <si>
+    <t>162. Find Peak Element</t>
+  </si>
+  <si>
+    <t>1901. Find Peak Element 2</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-rotated-sorted-array</t>
+  </si>
+  <si>
+    <t>644. Maximum Average Subarray 2</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-average-subarray-ii</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-minimum-in-rotated-sorted-array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/time-based-key-value-store</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-peak-element</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-a-peak-element-ii</t>
+  </si>
+  <si>
+    <t>Prefix Sum</t>
+  </si>
+  <si>
+    <t>523. Continuous Subarray Sum</t>
+  </si>
+  <si>
+    <t>974. Subarray Sums Divisible By K</t>
+  </si>
+  <si>
+    <t>560. Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>238. Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>121. Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>122. Best Time to Buy and Sell Stock 2</t>
+  </si>
+  <si>
+    <t>525. Contiguous Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/continuous-subarray-sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sums-divisible-by-k</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sum-equals-k</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/product-of-array-except-self</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contiguous-array</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,15 +438,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -806,12 +1051,416 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5B335A-F893-4E97-B268-193044B23A23}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{F3D4B19F-6BE6-40AB-A421-7FF9D291FA80}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{D8FEF735-B797-4309-B23D-9A8E5451D9DE}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{FB4C68AE-FEE5-41E2-8981-8DA0119F6648}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{5BD091CE-D18E-42A5-A2A8-4C253821416F}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{25BB2243-2575-4B38-BDCF-338DB1D7592B}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{92D0FAB7-2947-4F9A-915E-A3CD6762C38E}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{F93DB265-F1AF-4567-B28F-205D994BE6B9}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{62C516CA-C132-4294-A97E-28D756B555B9}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{7003E5E5-7DE7-43A3-8594-ED0A57601651}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{61200449-DE39-4CD1-A1B0-7DD5136EA4C2}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{553B1F9D-6E7B-4FF4-A094-31C1A9A92C52}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{BC532302-F01B-4A92-95D2-ACCECD36429F}"/>
+    <hyperlink ref="C20" r:id="rId13" xr:uid="{4F44029A-C579-4AFD-83CF-CACE7E626160}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{0920E668-6413-4A88-83F5-21003E37BC19}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{5085F297-B341-4BD0-BF5C-0FBDFF88AF2A}"/>
+    <hyperlink ref="C18" r:id="rId16" xr:uid="{C63E4F15-69DF-4D50-8A74-5296B4F4B07E}"/>
+    <hyperlink ref="C19" r:id="rId17" xr:uid="{409861FF-1AD5-4AF9-9E53-ECFF98B2A6D3}"/>
+    <hyperlink ref="C21" r:id="rId18" xr:uid="{A38AE131-71CC-4C33-A138-B1D91D766FD4}"/>
+    <hyperlink ref="C22" r:id="rId19" xr:uid="{D3B36A4E-FBF1-4259-A400-8B3DFB36BD59}"/>
+    <hyperlink ref="C23" r:id="rId20" xr:uid="{6AC282FB-1A31-4193-98DC-0B54C7825293}"/>
+    <hyperlink ref="C24" r:id="rId21" xr:uid="{CE824CE7-1202-46D8-8E88-5C1A850BDBF8}"/>
+    <hyperlink ref="C25" r:id="rId22" xr:uid="{923C3EDE-5046-4D8B-9373-E3905850C49F}"/>
+    <hyperlink ref="C27" r:id="rId23" xr:uid="{724C9735-D9E7-4D86-A83E-DE756FC8A20E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{E2BF46CD-028A-4FC7-818A-44FA705D316A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E8E1A85-281D-4772-A4B6-E5E5FF72A2A5}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{E2BF46CD-028A-4FC7-818A-44FA705D316A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66C8236F-6DD3-4279-B00C-F8AA03D3EB50}"/>
   <bookViews>
-    <workbookView xWindow="17775" yWindow="3690" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3690" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1054,7 +1054,7 @@
   <dimension ref="A2:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,6 +1217,9 @@
       <c r="C16" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -1225,6 +1228,9 @@
       <c r="C17" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -1233,6 +1239,9 @@
       <c r="C18" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -1252,6 +1261,9 @@
       <c r="C20" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -1260,6 +1272,9 @@
       <c r="C21" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -1268,6 +1283,9 @@
       <c r="C22" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -1276,6 +1294,9 @@
       <c r="C23" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -1284,6 +1305,9 @@
       <c r="C24" s="3" t="s">
         <v>92</v>
       </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -1291,6 +1315,9 @@
       </c>
       <c r="C25" s="3" t="s">
         <v>93</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">

--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackf\OneDrive - Northeastern University\Desktop\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{E2BF46CD-028A-4FC7-818A-44FA705D316A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66C8236F-6DD3-4279-B00C-F8AA03D3EB50}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3447B312-6D56-430D-A5FC-44D3984D7E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3690" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -734,14 +734,14 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44402</v>
       </c>
@@ -760,7 +760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44404</v>
       </c>
@@ -768,7 +768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44405</v>
       </c>
@@ -776,12 +776,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44406</v>
       </c>
@@ -789,12 +789,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44410</v>
       </c>
@@ -802,12 +802,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44412</v>
       </c>
@@ -815,7 +815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44413</v>
       </c>
@@ -826,7 +826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -834,7 +834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44422</v>
       </c>
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -853,7 +853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -861,7 +861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -869,7 +869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44423</v>
       </c>
@@ -880,7 +880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44424</v>
       </c>
@@ -891,7 +891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -899,7 +899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -907,7 +907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44425</v>
       </c>
@@ -918,7 +918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44426</v>
       </c>
@@ -929,7 +929,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>33</v>
       </c>
@@ -937,7 +937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44427</v>
       </c>
@@ -948,7 +948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>35</v>
       </c>
@@ -956,7 +956,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44429</v>
       </c>
@@ -967,7 +967,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>38</v>
       </c>
@@ -975,7 +975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -983,7 +983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44430</v>
       </c>
@@ -994,7 +994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>41</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44431</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>43</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44432</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44433</v>
       </c>
@@ -1053,18 +1053,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5B335A-F893-4E97-B268-193044B23A23}">
   <dimension ref="A2:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>50</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>51</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>52</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>53</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>54</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>55</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>56</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>57</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>58</v>
       </c>
@@ -1202,12 +1202,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>75</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>76</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>77</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>78</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>79</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>80</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>81</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>82</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>83</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -1330,8 +1330,11 @@
       <c r="C27" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -1345,23 +1348,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>96</v>
       </c>
       <c r="C29" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>97</v>
       </c>
       <c r="C30" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>98</v>
       </c>
@@ -1372,15 +1381,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>99</v>
       </c>
       <c r="C32" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>100</v>
       </c>
@@ -1391,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -1405,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -1419,39 +1431,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>112</v>
       </c>
       <c r="C37" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>113</v>
       </c>
       <c r="C38" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>114</v>
       </c>
       <c r="C39" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>115</v>
       </c>
       <c r="C40" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>116</v>
       </c>

--- a/DailyLog.xlsx
+++ b/DailyLog.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db1185575d0d401/Desktop/leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackf\OneDrive - Northeastern University\Desktop\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E2BF46CD-028A-4FC7-818A-44FA705D316A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70E98749-4620-407C-A682-E2AE9BB4A2C2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3447B312-6D56-430D-A5FC-44D3984D7E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="二刷" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="124">
   <si>
     <t>Day</t>
   </si>
@@ -163,16 +164,258 @@
   </si>
   <si>
     <t>348_DesignTicTacToe</t>
+  </si>
+  <si>
+    <t>Two Pointer</t>
+  </si>
+  <si>
+    <t>1. Two Sum</t>
+  </si>
+  <si>
+    <t>15. 3sum</t>
+  </si>
+  <si>
+    <t>16. 3Sum Closest</t>
+  </si>
+  <si>
+    <t>11. Container with Most Water</t>
+  </si>
+  <si>
+    <t>3. Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>76. Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>42. Trapping Raing Water</t>
+  </si>
+  <si>
+    <t>88. Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>1052. Grumpy Bookstore Owner</t>
+  </si>
+  <si>
+    <t>340. Longest Substring with At Most K Distinct Characters</t>
+  </si>
+  <si>
+    <t>475. Heaters</t>
+  </si>
+  <si>
+    <t>209. Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>6 hrs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum-closest</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/container-with-most-water</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-window-substring</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/trapping-rain-water</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-sorted-array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/grumpy-bookstore-owner</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/heaters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-size-subarray-sum</t>
+  </si>
+  <si>
+    <t>Arrays &amp; Strings</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
+  </si>
+  <si>
+    <t>283. Move Zeros</t>
+  </si>
+  <si>
+    <t>56. Merge Intervals</t>
+  </si>
+  <si>
+    <t>57. Insert Intervals</t>
+  </si>
+  <si>
+    <t>621. Task Scheduler</t>
+  </si>
+  <si>
+    <t>54. Spiral Matrix</t>
+  </si>
+  <si>
+    <t>31. Next Permutation</t>
+  </si>
+  <si>
+    <t>41. First Missing Positive</t>
+  </si>
+  <si>
+    <t>49. Group Anagrams</t>
+  </si>
+  <si>
+    <t>48. Rotate Image</t>
+  </si>
+  <si>
+    <t>289. Game of Life</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/move-zeroes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-intervals</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insert-interval</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/task-scheduler</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/spiral-matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-permutation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/first-missing-positive</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/group-anagrams</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-image</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/game-of-life</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>33. Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>153. Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>34. Find First and Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>981. Tme Based Key-Value Store</t>
+  </si>
+  <si>
+    <t>162. Find Peak Element</t>
+  </si>
+  <si>
+    <t>1901. Find Peak Element 2</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-rotated-sorted-array</t>
+  </si>
+  <si>
+    <t>644. Maximum Average Subarray 2</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-average-subarray-ii</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-minimum-in-rotated-sorted-array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/time-based-key-value-store</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-peak-element</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-a-peak-element-ii</t>
+  </si>
+  <si>
+    <t>Prefix Sum</t>
+  </si>
+  <si>
+    <t>523. Continuous Subarray Sum</t>
+  </si>
+  <si>
+    <t>974. Subarray Sums Divisible By K</t>
+  </si>
+  <si>
+    <t>560. Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>238. Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>121. Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>122. Best Time to Buy and Sell Stock 2</t>
+  </si>
+  <si>
+    <t>525. Contiguous Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/continuous-subarray-sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sums-divisible-by-k</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sum-equals-k</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/product-of-array-except-self</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contiguous-array</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,15 +438,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,18 +730,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44402</v>
       </c>
@@ -514,7 +760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44404</v>
       </c>
@@ -522,7 +768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44405</v>
       </c>
@@ -530,12 +776,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44406</v>
       </c>
@@ -543,12 +789,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44410</v>
       </c>
@@ -556,12 +802,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44412</v>
       </c>
@@ -569,7 +815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44413</v>
       </c>
@@ -580,7 +826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -588,7 +834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44422</v>
       </c>
@@ -599,7 +845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -607,7 +853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -615,7 +861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -623,7 +869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44423</v>
       </c>
@@ -634,7 +880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44424</v>
       </c>
@@ -645,7 +891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -653,7 +899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -661,7 +907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44425</v>
       </c>
@@ -672,7 +918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44426</v>
       </c>
@@ -683,7 +929,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>33</v>
       </c>
@@ -691,7 +937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44427</v>
       </c>
@@ -702,7 +948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>35</v>
       </c>
@@ -710,7 +956,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44429</v>
       </c>
@@ -721,7 +967,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>38</v>
       </c>
@@ -729,7 +975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -737,7 +983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44430</v>
       </c>
@@ -748,7 +994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>41</v>
       </c>
@@ -756,7 +1002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44431</v>
       </c>
@@ -767,7 +1013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>43</v>
       </c>
@@ -775,7 +1021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44432</v>
       </c>
@@ -786,7 +1032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44433</v>
       </c>
@@ -801,4 +1047,471 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5B335A-F893-4E97-B268-193044B23A23}">
+  <dimension ref="A2:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{F3D4B19F-6BE6-40AB-A421-7FF9D291FA80}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{D8FEF735-B797-4309-B23D-9A8E5451D9DE}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{FB4C68AE-FEE5-41E2-8981-8DA0119F6648}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{5BD091CE-D18E-42A5-A2A8-4C253821416F}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{25BB2243-2575-4B38-BDCF-338DB1D7592B}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{92D0FAB7-2947-4F9A-915E-A3CD6762C38E}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{F93DB265-F1AF-4567-B28F-205D994BE6B9}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{62C516CA-C132-4294-A97E-28D756B555B9}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{7003E5E5-7DE7-43A3-8594-ED0A57601651}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{61200449-DE39-4CD1-A1B0-7DD5136EA4C2}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{553B1F9D-6E7B-4FF4-A094-31C1A9A92C52}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{BC532302-F01B-4A92-95D2-ACCECD36429F}"/>
+    <hyperlink ref="C20" r:id="rId13" xr:uid="{4F44029A-C579-4AFD-83CF-CACE7E626160}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{0920E668-6413-4A88-83F5-21003E37BC19}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{5085F297-B341-4BD0-BF5C-0FBDFF88AF2A}"/>
+    <hyperlink ref="C18" r:id="rId16" xr:uid="{C63E4F15-69DF-4D50-8A74-5296B4F4B07E}"/>
+    <hyperlink ref="C19" r:id="rId17" xr:uid="{409861FF-1AD5-4AF9-9E53-ECFF98B2A6D3}"/>
+    <hyperlink ref="C21" r:id="rId18" xr:uid="{A38AE131-71CC-4C33-A138-B1D91D766FD4}"/>
+    <hyperlink ref="C22" r:id="rId19" xr:uid="{D3B36A4E-FBF1-4259-A400-8B3DFB36BD59}"/>
+    <hyperlink ref="C23" r:id="rId20" xr:uid="{6AC282FB-1A31-4193-98DC-0B54C7825293}"/>
+    <hyperlink ref="C24" r:id="rId21" xr:uid="{CE824CE7-1202-46D8-8E88-5C1A850BDBF8}"/>
+    <hyperlink ref="C25" r:id="rId22" xr:uid="{923C3EDE-5046-4D8B-9373-E3905850C49F}"/>
+    <hyperlink ref="C27" r:id="rId23" xr:uid="{724C9735-D9E7-4D86-A83E-DE756FC8A20E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>